--- a/3_output/tablas/gse_tables/midlow_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/midlow_ajust_apbi.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3026034258341295</v>
+        <v>0.4976677493778036</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/midlow_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/midlow_ajust_apbi.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.4976677493778036</v>
+        <v>0.2509403506200772</v>
       </c>
     </row>
   </sheetData>
